--- a/biology/Botanique/Leionema/Leionema.xlsx
+++ b/biology/Botanique/Leionema/Leionema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leionema est un genre de plus de vingt espèces d'arbustes surtout de petite taille de la famille des Rutaceae, dont la plupart sont endémiques à l'est de l'Australie. Les plantes de ce genre ont un feuillage parfumé et en cluster, aux fleurs en forme d'étoiled'une couleur allant de crème à jaune clair. Avant 1998, toutes les espèces de ce genre étaient incluses dans le genre Phebalium.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leionema ambiens  (F.Muell.) Paul G.Wilson 
 Leionema bilobum (Lindl.) Paul G.Wilson
@@ -528,7 +542,7 @@
 Leionema lamprophyllum (F.Muell.) Paul G.Wilson 
 Leionema microphyllum (F.Muell.) Paul G.Wilson 
 Leionema montanum (Hook.) Paul G.Wilson  
-Leionema nudum (Hook.) Paul G.Wilson  endémique à l'île du Nord en Nouvelle-Zélande[2]
+Leionema nudum (Hook.) Paul G.Wilson  endémique à l'île du Nord en Nouvelle-Zélande
 Leionema obtusifolium (Paul G.Wilson) Paul G.Wilson 
 Leionema oldfieldii (F.Muell.) Paul G.Wilson 
 Leionema phylicifolium (F.Muell.) Paul G.Wilson 
